--- a/biology/Zoologie/Ceratinopsis/Ceratinopsis.xlsx
+++ b/biology/Zoologie/Ceratinopsis/Ceratinopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceratinopsis est un genre d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratinopsis est un genre d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le Nord de l'Amérique, en Afrique et en Asie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le Nord de l'Amérique, en Afrique et en Asie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 13/11/2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 13/11/2022) :
 Ceratinopsis acripes (Denis, 1962)
 Ceratinopsis africana (Holm, 1962)
 Ceratinopsis atolma Chamberlin, 1925
@@ -590,7 +606,7 @@
 Ceratinopsis watsinga Chamberlin, 1949
 Ceratinopsis xanthippe (Keyserling, 1886)
 Ceratinopsis yola Chamberlin &amp; Ivie, 1939
-Selon World Spider Catalog (version 20.5, 2020)[2] :
+Selon World Spider Catalog (version 20.5, 2020) :
 † Ceratinopsis deformans (Wunderlich, 1998)</t>
         </is>
       </c>
@@ -619,7 +635,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Emerton en 1882 dans les Theridiidae.
 </t>
@@ -650,7 +668,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Emerton, 1882 : « New England spiders of the family Theridiidae. » Transactions of the Connecticut Academy of Arts and Sciences, vol. 6, p. 1-86 (texte intégral).</t>
         </is>
